--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -1,21 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Debts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Current Amount</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Existing Amount</t>
+  </si>
+  <si>
+    <t>Capital Investment</t>
+  </si>
+  <si>
+    <t>Taken money to invest in KTK bank. It is due and will be returned back to the company in the coming months</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Date Taken</t>
+  </si>
+  <si>
+    <t>Date Paid</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Investing in karnataka bank as it there is market crash going on and appears to be a right opportunity</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29,12 +77,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +388,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="63.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>200000</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <f>B2+C2-D2</f>
+        <v>200000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>E2</f>
+        <v>200000</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>32000</v>
+      </c>
+      <c r="E3" s="1">
+        <f>B3+C3-D3</f>
+        <v>168000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="91.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>32000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43178</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>S.No</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Investing in karnataka bank as it there is market crash going on and appears to be a right opportunity</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -103,11 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,81 +392,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="63.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
+        <v>43160</v>
+      </c>
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>200000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
-        <f>B2+C2-D2</f>
+      <c r="F2" s="1">
+        <f>C2+D2-E2</f>
         <v>200000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <f>E2</f>
+      <c r="B3" s="4">
+        <v>43160</v>
+      </c>
+      <c r="C3" s="1">
+        <f>F2</f>
         <v>200000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>32000</v>
       </c>
-      <c r="E3" s="1">
-        <f>B3+C3-D3</f>
+      <c r="F3" s="1">
+        <f>C3+D3-E3</f>
         <v>168000</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -475,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Debts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>S.No</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>Loan charges</t>
+  </si>
+  <si>
+    <t>Employee expenses</t>
+  </si>
+  <si>
+    <t>Due by Sameer. For monthly expenses</t>
+  </si>
+  <si>
+    <t>Monthly expenses by sameer</t>
   </si>
 </sst>
 </file>
@@ -106,12 +118,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +417,7 @@
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="63.42578125" customWidth="1"/>
+    <col min="7" max="7" width="100.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -477,6 +490,81 @@
       </c>
       <c r="G3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>43160</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C6" si="0">F3</f>
+        <v>168000</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>118</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F6" si="1">C4+D4-E4</f>
+        <v>167882</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>43160</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>167882</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>700</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>167182</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>43160</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>167182</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1500</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>165682</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -486,10 +574,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,6 +625,23 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43181</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Debts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>S.No</t>
   </si>
@@ -77,16 +77,32 @@
   </si>
   <si>
     <t>Monthly expenses by sameer</t>
+  </si>
+  <si>
+    <t>Paid manufacturer for samples</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,7 +117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -118,13 +134,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +465,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>43160</v>
       </c>
       <c r="C2" s="1">
@@ -471,7 +489,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>43160</v>
       </c>
       <c r="C3" s="1">
@@ -488,7 +506,7 @@
         <f>C3+D3-E3</f>
         <v>168000</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -496,11 +514,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>43160</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C6" si="0">F3</f>
+        <f t="shared" ref="C4:C9" si="0">F3</f>
         <v>168000</v>
       </c>
       <c r="D4">
@@ -510,7 +528,7 @@
         <v>118</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F6" si="1">C4+D4-E4</f>
+        <f t="shared" ref="F4:F9" si="1">C4+D4-E4</f>
         <v>167882</v>
       </c>
       <c r="G4" t="s">
@@ -521,7 +539,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>43160</v>
       </c>
       <c r="C5" s="1">
@@ -546,7 +564,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>43160</v>
       </c>
       <c r="C6" s="1">
@@ -563,21 +581,100 @@
         <f t="shared" si="1"/>
         <v>165682</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43160</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>165682</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>163682</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43160</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>163682</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>5500</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>158182</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43160</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>158182</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2500</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>155682</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,39 +705,76 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>32000</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="7">
         <v>43178</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>1500</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>43181</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43185</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2500</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43186</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>S.No</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Paid manufacturer for samples</t>
+  </si>
+  <si>
+    <t>FB Marketing</t>
   </si>
 </sst>
 </file>
@@ -425,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +521,7 @@
         <v>43160</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C9" si="0">F3</f>
+        <f t="shared" ref="C4:C11" si="0">F3</f>
         <v>168000</v>
       </c>
       <c r="D4">
@@ -528,7 +531,7 @@
         <v>118</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F9" si="1">C4+D4-E4</f>
+        <f t="shared" ref="F4:F11" si="1">C4+D4-E4</f>
         <v>167882</v>
       </c>
       <c r="G4" t="s">
@@ -658,6 +661,56 @@
       </c>
       <c r="G9" s="4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43160</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>155682</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3250</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>152432</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43160</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>152432</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>600</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>151832</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -673,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Debts" sheetId="2" r:id="rId2"/>
+    <sheet name="Expenses" sheetId="3" r:id="rId2"/>
+    <sheet name="Debts" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>S.No</t>
   </si>
@@ -83,6 +84,42 @@
   </si>
   <si>
     <t>FB Marketing</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Water Bill</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Internet Bill</t>
+  </si>
+  <si>
+    <t>Store Application</t>
+  </si>
+  <si>
+    <t>AMZ Blast</t>
+  </si>
+  <si>
+    <t>EMI</t>
+  </si>
+  <si>
+    <t>Jungle Scout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company Email </t>
+  </si>
+  <si>
+    <t>Employee Salaries</t>
+  </si>
+  <si>
+    <t>CC Avenue</t>
   </si>
 </sst>
 </file>
@@ -428,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -723,6 +760,144 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C2:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Expenses" sheetId="3" r:id="rId2"/>
     <sheet name="Debts" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>S.No</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>CC Avenue</t>
+  </si>
+  <si>
+    <t>Store Fees and Email Fees</t>
+  </si>
+  <si>
+    <t>Apr Internet Bill</t>
+  </si>
+  <si>
+    <t>Employee Salary</t>
+  </si>
+  <si>
+    <t>Rent and Utilties</t>
   </si>
 </sst>
 </file>
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +570,7 @@
         <v>43160</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C11" si="0">F3</f>
+        <f t="shared" ref="C4:C15" si="0">F3</f>
         <v>168000</v>
       </c>
       <c r="D4">
@@ -568,7 +580,7 @@
         <v>118</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F11" si="1">C4+D4-E4</f>
+        <f t="shared" ref="F4:F15" si="1">C4+D4-E4</f>
         <v>167882</v>
       </c>
       <c r="G4" t="s">
@@ -751,7 +763,104 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="1"/>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43191</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>151832</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>150332</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43191</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>150332</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>400</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>149932</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43191</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>149932</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>148932</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43191</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>148932</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>7000</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>141932</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -763,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C2:C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,6 +911,9 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -809,6 +921,9 @@
       </c>
       <c r="B4" t="s">
         <v>24</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>S.No</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>Rent and Utilties</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>GST Filing</t>
+  </si>
+  <si>
+    <t>March GST Filing</t>
   </si>
 </sst>
 </file>
@@ -475,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,6 +871,14 @@
         <v>36</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>500</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -870,10 +887,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C2:C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,6 +961,9 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
+      <c r="C6">
+        <v>800</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1005,6 +1025,28 @@
       </c>
       <c r="B13" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>S.No</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>March GST Filing</t>
+  </si>
+  <si>
+    <t>Electricity Mar 2018</t>
+  </si>
+  <si>
+    <t>Ali Express</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +585,7 @@
         <v>43160</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C15" si="0">F3</f>
+        <f t="shared" ref="C4:C19" si="0">F3</f>
         <v>168000</v>
       </c>
       <c r="D4">
@@ -589,7 +595,7 @@
         <v>118</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F15" si="1">C4+D4-E4</f>
+        <f t="shared" ref="F4:F19" si="1">C4+D4-E4</f>
         <v>167882</v>
       </c>
       <c r="G4" t="s">
@@ -872,11 +878,103 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43191</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>141932</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16">
         <v>500</v>
       </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>141432</v>
+      </c>
       <c r="G16" s="5" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43191</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>141432</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>140432</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43191</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>140432</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>500</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>139932</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43191</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>139932</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>138932</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -890,7 +988,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1157,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -146,7 +146,7 @@
     <t>Electricity Mar 2018</t>
   </si>
   <si>
-    <t>Ali Express</t>
+    <t>Ali Express shopping. Will be returned</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +973,7 @@
         <f t="shared" si="1"/>
         <v>138932</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -493,7 +493,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Expenses" sheetId="3" r:id="rId2"/>
     <sheet name="Debts" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>S.No</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Ali Express shopping. Will be returned</t>
+  </si>
+  <si>
+    <t>Taken for paying Insurance Premium. Need to Pay back</t>
+  </si>
+  <si>
+    <t>Taken for Insurance premium. Will be paid back</t>
   </si>
 </sst>
 </file>
@@ -201,11 +207,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -490,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +578,7 @@
         <f>C3+D3-E3</f>
         <v>168000</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -585,7 +590,7 @@
         <v>43160</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C19" si="0">F3</f>
+        <f t="shared" ref="C4:C21" si="0">F3</f>
         <v>168000</v>
       </c>
       <c r="D4">
@@ -595,7 +600,7 @@
         <v>118</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F19" si="1">C4+D4-E4</f>
+        <f t="shared" ref="F4:F21" si="1">C4+D4-E4</f>
         <v>167882</v>
       </c>
       <c r="G4" t="s">
@@ -648,7 +653,7 @@
         <f t="shared" si="1"/>
         <v>165682</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -673,7 +678,7 @@
         <f t="shared" si="1"/>
         <v>163682</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -698,7 +703,7 @@
         <f t="shared" si="1"/>
         <v>158182</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -723,7 +728,7 @@
         <f t="shared" si="1"/>
         <v>155682</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -748,7 +753,7 @@
         <f t="shared" si="1"/>
         <v>152432</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -773,7 +778,7 @@
         <f t="shared" si="1"/>
         <v>151832</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -823,7 +828,7 @@
         <f t="shared" si="1"/>
         <v>149932</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -848,7 +853,7 @@
         <f t="shared" si="1"/>
         <v>148932</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -873,7 +878,7 @@
         <f t="shared" si="1"/>
         <v>141932</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -898,7 +903,7 @@
         <f t="shared" si="1"/>
         <v>141432</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -923,7 +928,7 @@
         <f t="shared" si="1"/>
         <v>140432</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -948,7 +953,7 @@
         <f t="shared" si="1"/>
         <v>139932</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -973,8 +978,58 @@
         <f t="shared" si="1"/>
         <v>138932</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43191</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>138932</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>136932</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43191</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>136932</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>18000</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>118932</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +1043,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,6 +1133,9 @@
       <c r="B8" t="s">
         <v>28</v>
       </c>
+      <c r="C8">
+        <v>4600</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1154,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,76 +1246,109 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>32000</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>43178</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1500</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>43181</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>2000</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>43185</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>2500</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>43186</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43206</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>20000</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43206</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>S.No</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Open</t>
   </si>
   <si>
-    <t>Investing in karnataka bank as it there is market crash going on and appears to be a right opportunity</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
@@ -153,13 +150,40 @@
   </si>
   <si>
     <t>Taken for Insurance premium. Will be paid back</t>
+  </si>
+  <si>
+    <t>Given money to Sujit. Will be returned</t>
+  </si>
+  <si>
+    <t>Sameer Returned(rent)</t>
+  </si>
+  <si>
+    <t>Sameer Returned(employee expenses)</t>
+  </si>
+  <si>
+    <t>Sameer returned.GST Filing and Internet Bill</t>
+  </si>
+  <si>
+    <t>Sameer returned. IEC Code application</t>
+  </si>
+  <si>
+    <t>Given money to Sujit</t>
+  </si>
+  <si>
+    <t>16,500 Paid till date(15-05-2018)</t>
+  </si>
+  <si>
+    <t>Internet Bill and GST</t>
+  </si>
+  <si>
+    <t>IEC Appilcation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +200,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -215,6 +246,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -590,7 +624,7 @@
         <v>43160</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C21" si="0">F3</f>
+        <f t="shared" ref="C4:C30" si="0">F3</f>
         <v>168000</v>
       </c>
       <c r="D4">
@@ -600,11 +634,11 @@
         <v>118</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F21" si="1">C4+D4-E4</f>
+        <f t="shared" ref="F4:F30" si="1">C4+D4-E4</f>
         <v>167882</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -629,7 +663,7 @@
         <v>167182</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -654,7 +688,7 @@
         <v>165682</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -679,7 +713,7 @@
         <v>163682</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -704,7 +738,7 @@
         <v>158182</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -729,7 +763,7 @@
         <v>155682</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -754,7 +788,7 @@
         <v>152432</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -779,7 +813,7 @@
         <v>151832</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -804,7 +838,7 @@
         <v>150332</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -829,7 +863,7 @@
         <v>149932</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -854,7 +888,7 @@
         <v>148932</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -879,7 +913,7 @@
         <v>141932</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -904,7 +938,7 @@
         <v>141432</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,7 +963,7 @@
         <v>140432</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -954,7 +988,7 @@
         <v>139932</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -979,7 +1013,7 @@
         <v>138932</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1004,7 +1038,7 @@
         <v>136932</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1029,8 +1063,248 @@
         <v>118932</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>118932</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>50000</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>68932</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>68932</v>
+      </c>
+      <c r="D23">
+        <v>6500</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>75432</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>75432</v>
+      </c>
+      <c r="D24">
+        <v>4000</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>79432</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>79432</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>80432</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>80432</v>
+      </c>
+      <c r="D26">
+        <v>5000</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>85432</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>85432</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>6500</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>78932</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>78932</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>4000</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>74932</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>74932</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>73932</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>73932</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>5000</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>68932</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1057,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -1068,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>6000</v>
@@ -1079,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -1090,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>500</v>
@@ -1101,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>400</v>
@@ -1112,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>800</v>
@@ -1123,7 +1397,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>4600</v>
@@ -1142,7 +1416,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1150,7 +1424,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,7 +1432,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>5000</v>
@@ -1169,7 +1443,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>4000</v>
@@ -1180,7 +1454,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1188,7 +1462,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>600</v>
@@ -1199,7 +1473,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>500</v>
@@ -1212,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1534,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1277,7 +1551,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1294,7 +1568,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1311,7 +1585,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1329,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1347,7 +1621,24 @@
         <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>50000</v>
+      </c>
+      <c r="C8" s="7">
+        <v>43230</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4A7D3769-5ECC-4395-87A7-3F46F08EB801}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Expenses" sheetId="3" r:id="rId2"/>
     <sheet name="Debts" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>S.No</t>
   </si>
@@ -170,19 +171,22 @@
     <t>Given money to Sujit</t>
   </si>
   <si>
-    <t>16,500 Paid till date(15-05-2018)</t>
-  </si>
-  <si>
     <t>Internet Bill and GST</t>
   </si>
   <si>
     <t>IEC Appilcation</t>
+  </si>
+  <si>
+    <t>FB Marketing(Sameer Paid)</t>
+  </si>
+  <si>
+    <t>19,500 Paid till date(15-05-2018)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,11 +532,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +628,7 @@
         <v>43160</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C30" si="0">F3</f>
+        <f t="shared" ref="C4:C31" si="0">F3</f>
         <v>168000</v>
       </c>
       <c r="D4">
@@ -634,7 +638,7 @@
         <v>118</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F30" si="1">C4+D4-E4</f>
+        <f t="shared" ref="F4:F31" si="1">C4+D4-E4</f>
         <v>167882</v>
       </c>
       <c r="G4" t="s">
@@ -1263,7 +1267,7 @@
         <v>73932</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1288,13 +1292,36 @@
         <v>68932</v>
       </c>
       <c r="G30" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>68932</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>3000</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>65932</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="9"/>
-    </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="9"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
@@ -1313,7 +1340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1485,11 +1512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,7 +1561,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4A7D3769-5ECC-4395-87A7-3F46F08EB801}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Expenses" sheetId="3" r:id="rId2"/>
     <sheet name="Debts" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>S.No</t>
   </si>
@@ -180,13 +179,35 @@
     <t>FB Marketing(Sameer Paid)</t>
   </si>
   <si>
-    <t>19,500 Paid till date(15-05-2018)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Digital Signature(Sameer Paid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>21,500 Paid till date(20-05-2018)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,11 +553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +649,7 @@
         <v>43160</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C31" si="0">F3</f>
+        <f t="shared" ref="C4:C32" si="0">F3</f>
         <v>168000</v>
       </c>
       <c r="D4">
@@ -638,7 +659,7 @@
         <v>118</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F31" si="1">C4+D4-E4</f>
+        <f t="shared" ref="F4:F32" si="1">C4+D4-E4</f>
         <v>167882</v>
       </c>
       <c r="G4" t="s">
@@ -1321,8 +1342,26 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="B32" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>65932</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2000</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>63932</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="9"/>
@@ -1340,7 +1379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1512,10 +1551,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1561,7 +1600,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>S.No</t>
   </si>
@@ -201,7 +201,13 @@
     </r>
   </si>
   <si>
-    <t>21,500 Paid till date(20-05-2018)</t>
+    <t>Site Maintenance(Sameer Paid)</t>
+  </si>
+  <si>
+    <t>Employee expenses(Sameer Paid)</t>
+  </si>
+  <si>
+    <t>24,500 Paid till date(20-05-2018)</t>
   </si>
 </sst>
 </file>
@@ -556,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +655,7 @@
         <v>43160</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C32" si="0">F3</f>
+        <f t="shared" ref="C4:C34" si="0">F3</f>
         <v>168000</v>
       </c>
       <c r="D4">
@@ -659,7 +665,7 @@
         <v>118</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F32" si="1">C4+D4-E4</f>
+        <f t="shared" ref="F4:F34" si="1">C4+D4-E4</f>
         <v>167882</v>
       </c>
       <c r="G4" t="s">
@@ -1363,13 +1369,51 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>63932</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>2000</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>61932</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>61932</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>60932</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G35" s="9"/>
     </row>
   </sheetData>
@@ -1555,7 +1599,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,7 +1644,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -201,13 +201,13 @@
     </r>
   </si>
   <si>
-    <t>Site Maintenance(Sameer Paid)</t>
-  </si>
-  <si>
     <t>Employee expenses(Sameer Paid)</t>
   </si>
   <si>
-    <t>24,500 Paid till date(20-05-2018)</t>
+    <t>Site Maintenance</t>
+  </si>
+  <si>
+    <t>22,500 Paid till date(20-05-2018)</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,8 +1387,8 @@
         <f t="shared" si="1"/>
         <v>61932</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>53</v>
+      <c r="G33" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -1410,7 +1410,7 @@
         <v>60932</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{160FC94D-984E-4F12-B0B2-13F1330A5341}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Expenses" sheetId="3" r:id="rId2"/>
     <sheet name="Debts" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>S.No</t>
   </si>
@@ -165,9 +166,6 @@
   </si>
   <si>
     <t>Sameer returned. IEC Code application</t>
-  </si>
-  <si>
-    <t>Given money to Sujit</t>
   </si>
   <si>
     <t>Internet Bill and GST</t>
@@ -207,13 +205,37 @@
     <t>Site Maintenance</t>
   </si>
   <si>
-    <t>22,500 Paid till date(20-05-2018)</t>
+    <t>Money to purchase action camera from sunil</t>
+  </si>
+  <si>
+    <t>Money to purchase mouse pads</t>
+  </si>
+  <si>
+    <t>Given money to Sujit(Sujit Paid back 20,000 on 11-06-2018). Remaining Pending</t>
+  </si>
+  <si>
+    <t>Ramzaan Expenses</t>
+  </si>
+  <si>
+    <t>Due by Sameer. For Ramzaan</t>
+  </si>
+  <si>
+    <t>Money paid back by Sujit</t>
+  </si>
+  <si>
+    <t>Rent and Utilties(Sameer Paid)</t>
+  </si>
+  <si>
+    <t>Employee Expenses</t>
+  </si>
+  <si>
+    <t>29,500 Paid till date(12-06-2018)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,11 +581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +677,7 @@
         <v>43160</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C34" si="0">F3</f>
+        <f t="shared" ref="C4:C40" si="0">F3</f>
         <v>168000</v>
       </c>
       <c r="D4">
@@ -665,7 +687,7 @@
         <v>118</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F34" si="1">C4+D4-E4</f>
+        <f t="shared" ref="F4:F40" si="1">C4+D4-E4</f>
         <v>167882</v>
       </c>
       <c r="G4" t="s">
@@ -1294,7 +1316,7 @@
         <v>73932</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1319,7 +1341,7 @@
         <v>68932</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1344,10 +1366,13 @@
         <v>65932</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32" s="2">
         <v>43221</v>
       </c>
@@ -1366,10 +1391,13 @@
         <v>63932</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33" s="2">
         <v>43221</v>
       </c>
@@ -1388,10 +1416,13 @@
         <v>61932</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
       <c r="B34" s="2">
         <v>43221</v>
       </c>
@@ -1410,11 +1441,158 @@
         <v>60932</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G35" s="9"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>60932</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
+        <v>20000</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>40932</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>40932</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>20000</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>20932</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>20932</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>10932</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>10932</v>
+      </c>
+      <c r="D38">
+        <v>20000</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>30932</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>30932</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9">
+        <v>7000</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>23932</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>23932</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>19932</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1423,7 +1601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1595,8 +1773,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -1644,7 +1822,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1748,7 +1926,24 @@
         <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C9" s="7">
+        <v>43262</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{160FC94D-984E-4F12-B0B2-13F1330A5341}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Expenses" sheetId="3" r:id="rId2"/>
     <sheet name="Debts" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>S.No</t>
   </si>
@@ -235,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,11 +580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +676,7 @@
         <v>43160</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C40" si="0">F3</f>
+        <f t="shared" ref="C4:C41" si="0">F3</f>
         <v>168000</v>
       </c>
       <c r="D4">
@@ -687,7 +686,7 @@
         <v>118</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F40" si="1">C4+D4-E4</f>
+        <f t="shared" ref="F4:F41" si="1">C4+D4-E4</f>
         <v>167882</v>
       </c>
       <c r="G4" t="s">
@@ -1592,6 +1591,31 @@
       </c>
       <c r="G40" s="9" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>19932</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>18932</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1601,11 +1625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,10 +1797,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/Financials/2018/Account Summary.xlsx
+++ b/Financials/2018/Account Summary.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E9CFD5D4-56AC-4F88-9E55-D22667227E9D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Expenses" sheetId="3" r:id="rId2"/>
     <sheet name="Debts" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
   <si>
     <t>S.No</t>
   </si>
@@ -74,9 +75,6 @@
     <t>Due by Sameer. For monthly expenses</t>
   </si>
   <si>
-    <t>Monthly expenses by sameer</t>
-  </si>
-  <si>
     <t>Paid manufacturer for samples</t>
   </si>
   <si>
@@ -147,9 +145,6 @@
   </si>
   <si>
     <t>Taken for paying Insurance Premium. Need to Pay back</t>
-  </si>
-  <si>
-    <t>Taken for Insurance premium. Will be paid back</t>
   </si>
   <si>
     <t>Given money to Sujit. Will be returned</t>
@@ -213,9 +208,6 @@
     <t>Given money to Sujit(Sujit Paid back 20,000 on 11-06-2018). Remaining Pending</t>
   </si>
   <si>
-    <t>Ramzaan Expenses</t>
-  </si>
-  <si>
     <t>Due by Sameer. For Ramzaan</t>
   </si>
   <si>
@@ -228,13 +220,40 @@
     <t>Employee Expenses</t>
   </si>
   <si>
-    <t>29,500 Paid till date(12-06-2018)</t>
+    <t>Internet Bill (Paid By Sameer)</t>
+  </si>
+  <si>
+    <t>GST filing(Paid By Sameer)</t>
+  </si>
+  <si>
+    <t>Employee Salary(Paid By Sameer)</t>
+  </si>
+  <si>
+    <t>Purchased products for Company(Paid By Sameer)</t>
+  </si>
+  <si>
+    <t>Import customs duty(Paid By Sameer)</t>
+  </si>
+  <si>
+    <t>Sameer Paid</t>
+  </si>
+  <si>
+    <t>Sameer Due</t>
+  </si>
+  <si>
+    <t>Paid Back as on 12-07-2018</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Ramzaan Expenses. Paid Back 5500 as on 12-07-2018, 4500 Pending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,17 +309,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,11 +600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E47" sqref="E42:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +696,7 @@
         <v>43160</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C41" si="0">F3</f>
+        <f t="shared" ref="C4:C47" si="0">F3</f>
         <v>168000</v>
       </c>
       <c r="D4">
@@ -686,7 +706,7 @@
         <v>118</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F41" si="1">C4+D4-E4</f>
+        <f t="shared" ref="F4:F47" si="1">C4+D4-E4</f>
         <v>167882</v>
       </c>
       <c r="G4" t="s">
@@ -790,7 +810,7 @@
         <v>158182</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -840,7 +860,7 @@
         <v>152432</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -890,7 +910,7 @@
         <v>150332</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -915,7 +935,7 @@
         <v>149932</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -940,7 +960,7 @@
         <v>148932</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -965,7 +985,7 @@
         <v>141932</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -990,7 +1010,7 @@
         <v>141432</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1040,7 +1060,7 @@
         <v>139932</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1065,7 +1085,7 @@
         <v>138932</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1115,7 +1135,7 @@
         <v>118932</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1140,7 +1160,7 @@
         <v>68932</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1164,8 +1184,8 @@
         <f t="shared" si="1"/>
         <v>75432</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>44</v>
+      <c r="G23" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1189,8 +1209,8 @@
         <f t="shared" si="1"/>
         <v>79432</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>45</v>
+      <c r="G24" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1214,8 +1234,8 @@
         <f t="shared" si="1"/>
         <v>80432</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>46</v>
+      <c r="G25" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1239,8 +1259,8 @@
         <f t="shared" si="1"/>
         <v>85432</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>47</v>
+      <c r="G26" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1264,8 +1284,8 @@
         <f t="shared" si="1"/>
         <v>78932</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>35</v>
+      <c r="G27" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1289,7 +1309,7 @@
         <f t="shared" si="1"/>
         <v>74932</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1314,8 +1334,8 @@
         <f t="shared" si="1"/>
         <v>73932</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>48</v>
+      <c r="G29" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1339,8 +1359,8 @@
         <f t="shared" si="1"/>
         <v>68932</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>49</v>
+      <c r="G30" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1364,8 +1384,8 @@
         <f t="shared" si="1"/>
         <v>65932</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>50</v>
+      <c r="G31" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1382,15 +1402,15 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>2000</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
         <v>63932</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>51</v>
+      <c r="G32" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1407,15 +1427,15 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>2000</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="1"/>
         <v>61932</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>53</v>
+      <c r="G33" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1432,15 +1452,15 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>1000</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="1"/>
         <v>60932</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>52</v>
+      <c r="G34" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1457,15 +1477,15 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>20000</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="1"/>
         <v>40932</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>54</v>
+      <c r="G35" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1482,15 +1502,15 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>20000</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="1"/>
         <v>20932</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>55</v>
+      <c r="G36" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1507,15 +1527,15 @@
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>10000</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="1"/>
         <v>10932</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>58</v>
+      <c r="G37" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1532,15 +1552,15 @@
       <c r="D38">
         <v>20000</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>0</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="1"/>
         <v>30932</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>59</v>
+      <c r="G38" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1557,15 +1577,15 @@
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>7000</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="1"/>
         <v>23932</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>60</v>
+      <c r="G39" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1582,15 +1602,15 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>4000</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="1"/>
         <v>19932</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>61</v>
+      <c r="G40" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1607,15 +1627,165 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>1000</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="1"/>
         <v>18932</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>48</v>
+      <c r="G41" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>18932</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" s="8">
+        <v>7000</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>11932</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>11932</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8">
+        <v>500</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>11432</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="0"/>
+        <v>11432</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8">
+        <v>3000</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>8432</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="0"/>
+        <v>8432</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="8">
+        <v>4000</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="1"/>
+        <v>4432</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>4432</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8">
+        <v>1500</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="1"/>
+        <v>2932</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>2932</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="8">
+        <v>20000</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="1"/>
+        <v>-17068</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1625,10 +1795,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1643,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -1654,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>6000</v>
@@ -1665,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -1676,7 +1846,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>500</v>
@@ -1687,7 +1857,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>400</v>
@@ -1698,7 +1868,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>800</v>
@@ -1709,7 +1879,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1717,7 +1887,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>4600</v>
@@ -1728,7 +1898,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1736,7 +1906,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1744,7 +1914,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>5000</v>
@@ -1755,7 +1925,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>4000</v>
@@ -1766,7 +1936,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,7 +1944,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>600</v>
@@ -1785,7 +1955,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>500</v>
@@ -1797,11 +1967,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,107 +2003,123 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="9">
         <v>32000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="10">
         <v>43178</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>62</v>
+      <c r="D2" s="10">
+        <v>43293</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="9">
         <v>1500</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="10">
         <v>43181</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
+      <c r="D3" s="10">
+        <v>43293</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="9">
         <v>2000</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>43185</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
+      <c r="D4" s="10">
+        <v>43293</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="9">
         <v>2500</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="10">
         <v>43186</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
+      <c r="D5" s="10">
+        <v>43293</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="9">
         <v>2000</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="10">
         <v>43206</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
+      <c r="D6" s="10">
+        <v>43293</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="9">
         <v>20000</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="10">
         <v>43206</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
+      <c r="D7" s="10">
+        <v>43293</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1943,14 +2129,14 @@
       <c r="B8" s="5">
         <v>50000</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>43230</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1960,17 +2146,53 @@
       <c r="B9" s="5">
         <v>10000</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>43262</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>32000-29500</f>
+        <v>2500</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>